--- a/data.xlsx
+++ b/data.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>686</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -635,17 +635,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>572</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -655,12 +655,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -692,22 +692,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>103</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>330</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>306</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1031,12 +1031,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-3</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>501</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>470</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>260</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1407,12 +1407,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>450</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1481,32 +1481,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>773</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>856</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1674,12 +1674,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1951,32 +1951,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>68148</t>
+          <t>68149</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2050,12 +2050,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2133,17 +2133,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12231</t>
+          <t>12269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11640</t>
+          <t>11677</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1285</t>
         </is>
       </c>
     </row>
@@ -2197,27 +2197,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2197</t>
+          <t>2217</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>621</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2261,27 +2261,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>92189</t>
+          <t>93600</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>71343</t>
+          <t>72601</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18874</t>
+          <t>19001</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>1411</t>
         </is>
       </c>
     </row>
@@ -2293,27 +2293,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7973</t>
+          <t>8059</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3927</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2325,22 +2325,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2357,27 +2357,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>73513</t>
+          <t>73933</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>65189</t>
+          <t>65589</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7047</t>
+          <t>7063</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>335</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>73335</t>
+          <t>73431</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2399,17 +2399,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70534</t>
+          <t>70712</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>190</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>133118</t>
+          <t>133887</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2431,17 +2431,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>117362</t>
+          <t>118004</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13766</t>
+          <t>13893</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>770</t>
         </is>
       </c>
     </row>
@@ -2453,27 +2453,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>668957</t>
+          <t>700880</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13936</t>
+          <t>14129</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>409320</t>
+          <t>414141</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>245701</t>
+          <t>272610</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>30110</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>819</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>365</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2517,12 +2517,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10883</t>
+          <t>11175</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2532,12 +2532,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8777</t>
+          <t>9066</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>318</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>2198</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13049</t>
+          <t>13070</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2623,17 +2623,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11968</t>
+          <t>12001</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>415</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2660,12 +2660,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2188</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>249</t>
         </is>
       </c>
     </row>
@@ -2741,27 +2741,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>223617</t>
+          <t>227208</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2802</t>
+          <t>2854</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>162959</t>
+          <t>168429</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>57856</t>
+          <t>55925</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4187</t>
+          <t>3591</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5092</t>
+          <t>5533</t>
         </is>
       </c>
     </row>
@@ -2805,27 +2805,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>137231</t>
+          <t>138508</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2228</t>
+          <t>2254</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>111795</t>
+          <t>113228</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23208</t>
+          <t>23026</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1264</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>255</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>3942</t>
         </is>
       </c>
     </row>
@@ -2901,27 +2901,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>143376</t>
+          <t>147636</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1387</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>121621</t>
+          <t>124568</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20413</t>
+          <t>21681</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4033</t>
         </is>
       </c>
     </row>
@@ -2933,27 +2933,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>403311</t>
+          <t>406810</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8166</t>
+          <t>8205</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>345365</t>
+          <t>346951</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>49780</t>
+          <t>51654</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2829</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>237</t>
         </is>
       </c>
     </row>
@@ -2997,27 +2997,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>46980</t>
+          <t>47256</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>1841</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>37026</t>
+          <t>37302</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8132</t>
+          <t>8113</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>263</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>87137</t>
+          <t>87270</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>85357</t>
+          <t>85463</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>268</t>
         </is>
       </c>
     </row>
@@ -3093,27 +3093,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>554767</t>
+          <t>556728</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12306</t>
+          <t>12340</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>484570</t>
+          <t>486313</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>57891</t>
+          <t>58075</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2218</t>
+          <t>1961</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>129455</t>
+          <t>131297</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>45388</t>
+          <t>47208</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1511</t>
         </is>
       </c>
     </row>
@@ -3157,27 +3157,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>338748</t>
+          <t>339939</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>324645</t>
+          <t>325305</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11222</t>
+          <t>11751</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1326</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>13881</t>
+          <t>13621</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9504803</t>
+          <t>9534964</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>138251</t>
+          <t>138657</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8938116</t>
+          <t>8973373</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>428436</t>
+          <t>422934</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>21252</t>
+          <t>39172</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1295</t>
+          <t>1432</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>24532</t>
+          <t>25410</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>6982</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>627</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>331</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2794</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3413,22 +3413,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>35163</t>
+          <t>35703</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>529</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>28065</t>
+          <t>28352</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6572</t>
+          <t>6822</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>851</t>
         </is>
       </c>
     </row>
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>153450</t>
+          <t>153456</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2218</t>
+          <t>2225</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3492,12 +3492,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>23928</t>
+          <t>23927</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2438</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>58230</t>
+          <t>58239</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>58139</t>
+          <t>58144</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4026</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3551,17 +3551,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3822</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3639,12 +3639,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>337</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -3666,12 +3666,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>344</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3688,27 +3688,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>35849</t>
+          <t>36351</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>510</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24637</t>
+          <t>25409</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10708</t>
+          <t>10432</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>584</t>
         </is>
       </c>
     </row>
@@ -3752,27 +3752,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>39014</t>
+          <t>39719</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>839</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19384</t>
+          <t>19912</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18808</t>
+          <t>18968</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>705</t>
         </is>
       </c>
     </row>
@@ -3784,27 +3784,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>148775</t>
+          <t>151913</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>53000</t>
+          <t>55206</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91587</t>
+          <t>92360</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3475</t>
         </is>
       </c>
     </row>
@@ -3816,27 +3816,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>108863</t>
+          <t>110580</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95918</t>
+          <t>96711</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10622</t>
+          <t>11526</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>1717</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>2043</t>
         </is>
       </c>
     </row>
@@ -3944,12 +3944,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>183437</t>
+          <t>191356</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3959,12 +3959,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>150249</t>
+          <t>158116</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7999</t>
+          <t>7919</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>1035</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3986,17 +3986,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>954</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4018,17 +4018,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -4040,27 +4040,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>89085</t>
+          <t>90378</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2727</t>
+          <t>2773</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>53724</t>
+          <t>54967</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>32634</t>
+          <t>32638</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2477</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4136</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>79563</t>
+          <t>79566</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20569</t>
+          <t>20572</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9113</t>
+          <t>13823</t>
         </is>
       </c>
     </row>
@@ -4168,27 +4168,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>758264</t>
+          <t>772760</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12717</t>
+          <t>12960</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>369054</t>
+          <t>384426</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>376493</t>
+          <t>375374</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13141</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>690</t>
         </is>
       </c>
     </row>
@@ -4232,27 +4232,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>300462</t>
+          <t>303846</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4577</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>220877</t>
+          <t>223446</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>75008</t>
+          <t>75755</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>3384</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6790</t>
+          <t>6842</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4274,17 +4274,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>778</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -4296,27 +4296,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>528474</t>
+          <t>533042</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8407</t>
+          <t>8515</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>455177</t>
+          <t>461599</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>64890</t>
+          <t>62928</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5176</t>
         </is>
       </c>
     </row>
@@ -4328,12 +4328,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>72798</t>
+          <t>73066</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2069</t>
+          <t>2074</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4343,12 +4343,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>47365</t>
+          <t>47628</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>254</t>
         </is>
       </c>
     </row>
@@ -4360,27 +4360,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>35129</t>
+          <t>35802</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26156</t>
+          <t>26497</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8643</t>
+          <t>8971</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>451</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4402,17 +4402,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>301</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>621</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>563</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4488,27 +4488,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>138219</t>
+          <t>139908</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>115587</t>
+          <t>117195</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>21466</t>
+          <t>21539</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>1689</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2106</t>
         </is>
       </c>
     </row>
@@ -4552,27 +4552,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>527523</t>
+          <t>532444</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>9504</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7017</t>
+          <t>7066</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>511068</t>
+          <t>515874</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4045</t>
+          <t>4921</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>522</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>1586</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>4916</t>
         </is>
       </c>
     </row>
@@ -4680,27 +4680,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>62945</t>
+          <t>63890</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1792</t>
+          <t>1825</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>40188</t>
+          <t>40977</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20965</t>
+          <t>21088</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1067</t>
         </is>
       </c>
     </row>
@@ -4712,12 +4712,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>36591</t>
+          <t>36969</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4727,12 +4727,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8843</t>
+          <t>9204</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>471</t>
         </is>
       </c>
     </row>
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>107470</t>
+          <t>109655</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>94964</t>
+          <t>97060</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4384</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4991</t>
+          <t>5045</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>73069</t>
+          <t>73015</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3802</t>
+          <t>4786</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2900</t>
+          <t>3539</t>
         </is>
       </c>
     </row>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>3972</t>
         </is>
       </c>
     </row>
@@ -4872,27 +4872,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>579212</t>
+          <t>582252</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16786</t>
+          <t>16911</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>37924</t>
+          <t>38261</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>524502</t>
+          <t>527080</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1867</t>
         </is>
       </c>
     </row>
@@ -4904,12 +4904,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1673202</t>
+          <t>1682533</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>45511</t>
+          <t>45784</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1430733</t>
+          <t>1439791</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8257</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>260758</t>
+          <t>266158</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>6798</t>
+          <t>6972</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4951,12 +4951,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>248989</t>
+          <t>254215</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>17629</t>
+          <t>5400</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>26402</t>
+          <t>25345</t>
         </is>
       </c>
     </row>
@@ -5000,27 +5000,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1643086</t>
+          <t>1659256</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>59051</t>
+          <t>59699</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3589</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1580446</t>
+          <t>1595955</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13429</t>
         </is>
       </c>
     </row>
@@ -5032,27 +5032,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1620901</t>
+          <t>1641610</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>56361</t>
+          <t>57045</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>784595</t>
+          <t>823335</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>779945</t>
+          <t>761230</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19347</t>
         </is>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>420</t>
         </is>
       </c>
     </row>
@@ -5096,12 +5096,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1088459</t>
+          <t>1105832</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17443</t>
+          <t>17812</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5111,12 +5111,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>291516</t>
+          <t>308520</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5939</t>
+          <t>15762</t>
         </is>
       </c>
     </row>
@@ -5128,27 +5128,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2230571</t>
+          <t>2244635</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>53506</t>
+          <t>53816</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>164029</t>
+          <t>165563</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2013036</t>
+          <t>2025256</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>8083</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>2142</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>820</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>997</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5290,12 +5290,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3111</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5317,17 +5317,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2954</t>
+          <t>2966</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6028</t>
+          <t>6040</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5349,17 +5349,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5465</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>384</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2413</t>
+          <t>2416</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5418,12 +5418,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>504</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5499,27 +5499,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4762</t>
+          <t>4837</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3241</t>
+          <t>3263</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>670</t>
         </is>
       </c>
     </row>
@@ -5563,27 +5563,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15770</t>
+          <t>15866</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13778</t>
+          <t>14014</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -5627,12 +5627,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21035</t>
+          <t>21409</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5642,12 +5642,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11786</t>
+          <t>12159</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>576</t>
         </is>
       </c>
     </row>
@@ -5659,27 +5659,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15251</t>
+          <t>15319</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7932</t>
+          <t>8139</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6969</t>
+          <t>6829</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>10867</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5765,17 +5765,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10366</t>
+          <t>10422</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>339</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -5787,27 +5787,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>337</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5829,17 +5829,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1532</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>508</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5861,17 +5861,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>465</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>17665</t>
+          <t>17700</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5893,17 +5893,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17059</t>
+          <t>17086</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>257</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5680</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5930,12 +5930,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3743</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5957,17 +5957,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3607</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5979,12 +5979,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>14416</t>
+          <t>14477</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6277,17 +6277,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13600</t>
+          <t>13697</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>629</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -6299,27 +6299,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5994</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5544</t>
+          <t>5575</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>369</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6442</t>
+          <t>6455</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6341,17 +6341,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6017</t>
+          <t>6032</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -6363,27 +6363,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8710</t>
+          <t>8863</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7764</t>
+          <t>7780</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>904</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -6395,27 +6395,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>18045</t>
+          <t>18254</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10369</t>
+          <t>10493</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6421</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>235</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -6459,27 +6459,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>110554</t>
+          <t>110984</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>74917</t>
+          <t>76067</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>33928</t>
+          <t>33202</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>480</t>
         </is>
       </c>
     </row>
@@ -6491,27 +6491,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>84169</t>
+          <t>85130</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>55610</t>
+          <t>56464</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>27085</t>
+          <t>27182</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>961</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9214</t>
+          <t>9239</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6533,12 +6533,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9066</t>
+          <t>9089</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8054</t>
+          <t>8102</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>890</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>21334</t>
+          <t>21361</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6629,17 +6629,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20981</t>
+          <t>21010</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>219</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6651,27 +6651,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>12859</t>
+          <t>12987</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11663</t>
+          <t>11694</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>957</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6693,17 +6693,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2644</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>275</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -6715,27 +6715,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2997</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>406</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -6779,27 +6779,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>792299</t>
+          <t>796472</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>21644</t>
+          <t>21709</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>732531</t>
+          <t>734305</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>38124</t>
+          <t>40458</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2295</t>
         </is>
       </c>
     </row>
@@ -6811,27 +6811,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>98072</t>
+          <t>99280</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>72473</t>
+          <t>73607</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>22288</t>
+          <t>22314</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1303</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -6875,27 +6875,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>359844</t>
+          <t>364190</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5915</t>
+          <t>5985</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>310193</t>
+          <t>314237</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>43736</t>
+          <t>43968</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3508</t>
         </is>
       </c>
     </row>
@@ -6907,27 +6907,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>67838</t>
+          <t>67960</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>63430</t>
+          <t>63839</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>281</t>
         </is>
       </c>
     </row>
@@ -6939,27 +6939,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>116303</t>
+          <t>116724</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6666</t>
+          <t>6694</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>102816</t>
+          <t>102949</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6821</t>
+          <t>7081</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>392</t>
         </is>
       </c>
     </row>
@@ -6971,27 +6971,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>84152</t>
+          <t>85084</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2447</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>54405</t>
+          <t>54990</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>27300</t>
+          <t>27630</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>953</t>
         </is>
       </c>
     </row>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -7310,12 +7310,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14559</t>
+          <t>14716</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -7325,12 +7325,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9641</t>
+          <t>9797</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>187</t>
         </is>
       </c>
     </row>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>2069</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7352,17 +7352,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27923</t>
+          <t>27939</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7384,17 +7384,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25612</t>
+          <t>25614</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>267</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7499,17 +7499,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>215</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>751</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7659,17 +7659,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>733</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9296</t>
+          <t>9313</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7787,17 +7787,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8023</t>
+          <t>8091</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>989</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2162</t>
+          <t>2157</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>279</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7888,12 +7888,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -8011,17 +8011,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>256</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4872</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -8043,17 +8043,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4705</t>
+          <t>4718</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -8075,17 +8075,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1191</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>1433</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>141</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>118</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -8171,17 +8171,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>133</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8193,27 +8193,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>122774</t>
+          <t>123460</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4178</t>
+          <t>4191</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>111574</t>
+          <t>112181</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7022</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>686</t>
         </is>
       </c>
     </row>
@@ -8225,27 +8225,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6685</t>
+          <t>6704</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5807</t>
+          <t>5843</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>740</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -8257,7 +8257,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8381</t>
+          <t>8456</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -8267,17 +8267,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7658</t>
+          <t>7714</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>606</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -8289,22 +8289,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>108253</t>
+          <t>109144</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2918</t>
+          <t>2930</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>48073</t>
+          <t>48877</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>57262</t>
+          <t>57337</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -8331,12 +8331,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>976</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>91</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10810</t>
+          <t>10864</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8395,17 +8395,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6364</t>
+          <t>6500</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -8417,27 +8417,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>167311</t>
+          <t>169339</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3098</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>145518</t>
+          <t>146576</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18695</t>
+          <t>19649</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1505</t>
         </is>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -8481,27 +8481,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>140172</t>
+          <t>141340</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>1739</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>87721</t>
+          <t>88226</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>50720</t>
+          <t>51375</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>534</t>
         </is>
       </c>
     </row>
@@ -8513,27 +8513,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>144302</t>
+          <t>145197</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2333</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>115530</t>
+          <t>115611</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>26439</t>
+          <t>27252</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>895</t>
         </is>
       </c>
     </row>
@@ -8545,27 +8545,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1122362</t>
+          <t>1133613</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>106765</t>
+          <t>107565</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>829817</t>
+          <t>836567</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>185780</t>
+          <t>189481</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8819</t>
         </is>
       </c>
     </row>
@@ -8577,27 +8577,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>383468</t>
+          <t>389775</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12211</t>
+          <t>12325</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>304888</t>
+          <t>309886</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>66369</t>
+          <t>67564</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>5345</t>
         </is>
       </c>
     </row>
@@ -8609,27 +8609,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14108606</t>
+          <t>14314265</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>276979</t>
+          <t>279867</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8333255</t>
+          <t>8462434</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5498372</t>
+          <t>5571964</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>13615</t>
+          <t>198213</t>
         </is>
       </c>
     </row>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8702,12 +8702,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5423</t>
+          <t>5449</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8734,17 +8734,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>768</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5319</t>
+          <t>5320</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8766,17 +8766,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5197</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -8788,27 +8788,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6024</t>
+          <t>6225</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4483</t>
+          <t>4584</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>167</t>
         </is>
       </c>
     </row>
@@ -8820,27 +8820,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>102621</t>
+          <t>103067</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>905</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97562</t>
+          <t>98030</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4158</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>227</t>
         </is>
       </c>
     </row>
@@ -8852,27 +8852,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>144810</t>
+          <t>144994</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8963</t>
+          <t>8972</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>122495</t>
+          <t>123673</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13352</t>
+          <t>12349</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11240</t>
+          <t>11283</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8899,12 +8899,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -8916,27 +8916,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>83479</t>
+          <t>84482</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1771</t>
+          <t>1783</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>58949</t>
+          <t>59465</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22759</t>
+          <t>23234</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1055</t>
         </is>
       </c>
     </row>
@@ -8948,27 +8948,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1324792</t>
+          <t>1334089</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>36934</t>
+          <t>37117</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1217647</t>
+          <t>1225635</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>70211</t>
+          <t>71337</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7986</t>
         </is>
       </c>
     </row>
@@ -8980,27 +8980,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>965228</t>
+          <t>967075</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>36031</t>
+          <t>36076</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>896978</t>
+          <t>899213</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>32219</t>
+          <t>31786</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1623</t>
         </is>
       </c>
     </row>
@@ -9012,27 +9012,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1432570</t>
+          <t>1440103</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>38928</t>
+          <t>39156</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1263251</t>
+          <t>1268358</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>130391</t>
+          <t>132589</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8037</t>
         </is>
       </c>
     </row>
@@ -9044,27 +9044,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>552864</t>
+          <t>553898</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15430</t>
+          <t>15438</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>528034</t>
+          <t>529501</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9400</t>
+          <t>8959</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1034</t>
         </is>
       </c>
     </row>
@@ -9076,12 +9076,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>193673</t>
+          <t>194876</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13501</t>
+          <t>13562</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -9091,12 +9091,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10368</t>
+          <t>11510</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>988</t>
         </is>
       </c>
     </row>
@@ -9108,27 +9108,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6388526</t>
+          <t>6436650</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>173862</t>
+          <t>174531</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5656498</t>
+          <t>5698353</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>558166</t>
+          <t>563766</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52248</t>
         </is>
       </c>
     </row>
@@ -9274,27 +9274,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>668957</t>
+          <t>700880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13936</t>
+          <t>14129</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>409320</t>
+          <t>414141</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>245701</t>
+          <t>272610</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>30110</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13881</t>
+          <t>13621</t>
         </is>
       </c>
     </row>
@@ -9338,27 +9338,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>527523</t>
+          <t>532444</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>9504</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7017</t>
+          <t>7066</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>511068</t>
+          <t>515874</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4045</t>
+          <t>4921</t>
         </is>
       </c>
     </row>
@@ -9370,27 +9370,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>579212</t>
+          <t>582252</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16786</t>
+          <t>16911</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>37924</t>
+          <t>38261</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>524502</t>
+          <t>527080</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1867</t>
         </is>
       </c>
     </row>
@@ -9402,12 +9402,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1673202</t>
+          <t>1682533</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45511</t>
+          <t>45784</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -9417,12 +9417,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1430733</t>
+          <t>1439791</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8257</t>
         </is>
       </c>
     </row>
@@ -9434,27 +9434,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1643086</t>
+          <t>1659256</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>59051</t>
+          <t>59699</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3589</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1580446</t>
+          <t>1595955</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13429</t>
         </is>
       </c>
     </row>
@@ -9466,27 +9466,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1620901</t>
+          <t>1641610</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>56361</t>
+          <t>57045</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>784595</t>
+          <t>823335</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>779945</t>
+          <t>761230</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19347</t>
         </is>
       </c>
     </row>
@@ -9498,12 +9498,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1088459</t>
+          <t>1105832</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17443</t>
+          <t>17812</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>291516</t>
+          <t>308520</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5939</t>
+          <t>15762</t>
         </is>
       </c>
     </row>
@@ -9530,27 +9530,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2230571</t>
+          <t>2244635</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>53506</t>
+          <t>53816</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>164029</t>
+          <t>165563</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2013036</t>
+          <t>2025256</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>8083</t>
         </is>
       </c>
     </row>
@@ -9562,27 +9562,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14108606</t>
+          <t>14314265</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>276979</t>
+          <t>279867</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8333255</t>
+          <t>8462434</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5498372</t>
+          <t>5571964</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>13615</t>
+          <t>198213</t>
         </is>
       </c>
     </row>
